--- a/data/formers/formers_unsh.xlsx
+++ b/data/formers/formers_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_13.04.2022\formers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\formers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496D7EE5-E157-4DCA-8ADF-7AA014AB4A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790812BB-A346-4498-A118-BDDEB7628C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Отбор:</t>
   </si>
@@ -92,202 +92,169 @@
     <t>33039упб Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=3 (арт. 57813) V.1 / УПАК</t>
   </si>
   <si>
+    <t>33037упб Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=7 (арт. 58153) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
     <t>33040уп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>33037упб Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=7 (арт. 58153) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
     <t>33045уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=3 (арт. 57811) V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
+    <t>33042уп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
     <t>33043уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=7 (арт. 58152) V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>33042уп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
     <t>33040П Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) ПОЛИР. V.1.P</t>
   </si>
   <si>
     <t>33037П Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=7 (арт. 58153) ПОЛИР. V.1.P</t>
   </si>
   <si>
+    <t>33009 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 H=5 (арт. 110) V.1</t>
+  </si>
+  <si>
     <t>33042П Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) ПОЛИР. V.1.P</t>
   </si>
   <si>
+    <t>33039Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=3 (арт. 57813) ПОЛИР. V.1.P / УПАК</t>
+  </si>
+  <si>
+    <t>33093 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 G/H=7 H=7 (арт. TSHA607R) V.1</t>
+  </si>
+  <si>
+    <t>33089 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=7 (арт. TSHA507R) V.1</t>
+  </si>
+  <si>
+    <t>33042Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33056П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=2.6 (арт. HAB452020L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
     <t>33040Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>33042Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33059 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=3 H=5 (арт. HAB553050L) V.1</t>
-  </si>
-  <si>
     <t>33038Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=5 (арт. 57814) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>33039Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=3 (арт. 57813) ПОЛИР. V.1.P / УПАК</t>
-  </si>
-  <si>
-    <t>33056П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=2.6 (арт. HAB452020L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
     <t>33041уп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>33040упб Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>33028 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=3 (арт. TSHA403M) V.1</t>
+    <t>33053 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=5 (арт. TSHA455R) V.1</t>
+  </si>
+  <si>
+    <t>33034 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=7 (арт. TSHA457R) V.1</t>
+  </si>
+  <si>
+    <t>33054 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=4 (арт. TSHA504R) V.1</t>
+  </si>
+  <si>
+    <t>33033 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=4 (арт. TSHA454R) V.1</t>
+  </si>
+  <si>
+    <t>33036 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=5 (арт. TSHA505R) V.1</t>
+  </si>
+  <si>
+    <t>33008 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 H=4 (арт. 117) V.1</t>
   </si>
   <si>
     <t>33037Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=7 (арт. 58153) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
   </si>
   <si>
+    <t>33057П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33234 Формирователь десны LM (копия оригинала) Nobel Conical Connection RP (4.3) D=5 H=5 (арт. 36646) V.1</t>
+  </si>
+  <si>
     <t>33080П Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) ПОЛИР. V.1.P</t>
   </si>
   <si>
-    <t>33083П Формирователь десны LM (копия оригинала) Ankylos X D=6 G/H=3 H=4.71 (арт. 3102 4014) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33046 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=4 (арт. TSHA404M) V.1</t>
-  </si>
-  <si>
-    <t>33126 Формирователь десны LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=4.8 H=3 (арт. CS-HS348) V.1</t>
-  </si>
-  <si>
     <t>33029упб Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>33057П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33127 Формирователь десны LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=4.8 H=4 (арт. CS-HS448) V.1</t>
+    <t>33041 Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1</t>
   </si>
   <si>
     <t>33082 Формирователь десны LM (копия оригинала) Ankylos X D=6 G/H=1.5 H=3.21 (арт. 3102 4012) V.1</t>
   </si>
   <si>
-    <t>33041 Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1</t>
-  </si>
-  <si>
-    <t>33054 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=4 (арт. TSHA504R) V.1</t>
-  </si>
-  <si>
-    <t>33035 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=3 (арт. TSHA503R) V.1</t>
+    <t>33119П Формирователь десны LM (копия оригинала) Implantium D=5.5 H=4.6 (арт. HAB552035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33093Пуп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 G/H=7 H=7 (арт. TSHA607R) ПОЛИР. V.1.P / УПАК</t>
+  </si>
+  <si>
+    <t>33081упб Формирователь десны LM (копия оригинала) Implantium D=4.5 H=5 (арт. HAB453050L) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33059упб Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=3 H=5 (арт. HAB553050L) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33101П Формирователь десны LM (копия оригинала) Implantium D=6.5 H=4.8 (арт. HAB652035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33231 Формирователь десны LM (копия оригинала) Nobel Conical Connection NP (3.5) D=5 H=5 (арт. 36642) V.1</t>
+  </si>
+  <si>
+    <t>33055П Формирователь десны LM (копия оригинала) Implantium D=4 H=2.6 (арт. HAB402020L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33097 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 H=7 (арт. TSHA707R) V.1</t>
+  </si>
+  <si>
+    <t>33044 Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1</t>
+  </si>
+  <si>
+    <t>33025 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=5 (арт. AANHAF0505) V.1</t>
+  </si>
+  <si>
+    <t>33084 Формирователь десны LM (копия оригинала) Ankylos X D=6 G/H=4.5 H=6.21 (арт. 3102 4016) V.1</t>
+  </si>
+  <si>
+    <t>33080упб Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33053уп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=5 (арт. TSHA455R) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33057упб Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33058П Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=2.6 (арт. HAB552020L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33193 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=4 H=7 (арт. HAB554070L) V.1</t>
   </si>
   <si>
     <t>33190 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=4 H=7 (арт. HAB454070L) V.1</t>
   </si>
   <si>
-    <t>33119П Формирователь десны LM (копия оригинала) Implantium D=5.5 H=4.6 (арт. HAB552035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33091 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=4 (арт. TSHA604R) V.1</t>
-  </si>
-  <si>
-    <t>33081упб Формирователь десны LM (копия оригинала) Implantium D=4.5 H=5 (арт. HAB453050L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33201 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=5.5 H=5 (арт. HA5550) V.1</t>
-  </si>
-  <si>
-    <t>33240 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=5.5 H=5 (арт. HA5540) V.1</t>
-  </si>
-  <si>
-    <t>33059упб Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=3 H=5 (арт. HAB553050L) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33244 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=6.5 H=4 (арт. HA6540) V.1</t>
-  </si>
-  <si>
-    <t>33044 Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1</t>
-  </si>
-  <si>
-    <t>33101П Формирователь десны LM (копия оригинала) Implantium D=6.5 H=4.8 (арт. HAB652035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33055П Формирователь десны LM (копия оригинала) Implantium D=4 H=2.6 (арт. HAB402020L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33090 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=3 (арт. TSHA603R) V.1</t>
-  </si>
-  <si>
-    <t>33025 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=5 (арт. AANHAF0505) V.1</t>
-  </si>
-  <si>
-    <t>33036 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=5 (арт. TSHA505R) V.1</t>
-  </si>
-  <si>
-    <t>33084 Формирователь десны LM (копия оригинала) Ankylos X D=6 G/H=4.5 H=6.21 (арт. 3102 4016) V.1</t>
-  </si>
-  <si>
-    <t>33057упб Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33080упб Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33049 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=5 (арт. TSHA455M) V.1</t>
-  </si>
-  <si>
-    <t>33092 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=5 (арт. TSHA605R) V.1</t>
-  </si>
-  <si>
-    <t>33058П Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=2.6 (арт. HAB552020L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
     <t>33081 Формирователь десны LM (копия оригинала) Implantium D=4.5 H=5 (арт. HAB453050L) V.1</t>
   </si>
   <si>
-    <t>33193 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=4 H=7 (арт. HAB554070L) V.1</t>
-  </si>
-  <si>
-    <t>33089 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=7 (арт. TSHA507R) V.1</t>
-  </si>
-  <si>
-    <t>33199 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=4.5 H=6 (арт. HA4560) V.1</t>
-  </si>
-  <si>
-    <t>33203 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=6 H=7 (арт. AANHAF0607) V.1</t>
-  </si>
-  <si>
-    <t>33196 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=4 H=7 (арт. HA4070) V.1</t>
-  </si>
-  <si>
-    <t>33184 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=6 H=2 (арт. 024.4242) V.1</t>
-  </si>
-  <si>
-    <t>33241 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=5.5 H=6 (арт. HA5560) V.1</t>
+    <t>33051 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 G/H=5 H=5 (арт. TSHA405R) V.1</t>
+  </si>
+  <si>
+    <t>33036упб Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=5 (арт. TSHA505R) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33092Пуп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=5 (арт. TSHA605R) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33010 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 G/H=7 H=7 (арт. 119) V.1</t>
   </si>
   <si>
     <t>33044уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>33192 Формирователь десны LM (копия оригинала) Implantium D=4 G/H=4 H=7 (арт. HAB404070L) V.1</t>
-  </si>
-  <si>
-    <t>33175 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=6 H=4 (арт. 024.4244) V.1</t>
-  </si>
-  <si>
-    <t>33242 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=5.5 H=7 (арт. HA5570) V.1</t>
-  </si>
-  <si>
-    <t>33178 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=4.8 H=2 (арт. 024.2242) V.1</t>
-  </si>
-  <si>
     <t>33007 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 H=3 (арт. 109) V.1</t>
-  </si>
-  <si>
-    <t>33088Пуп Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=7 (арт. TSHA457M) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33008 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 H=4 (арт. 117) V.1</t>
-  </si>
-  <si>
-    <t>33202 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=4 H=7 (арт. AANHAF0407) V.1</t>
   </si>
 </sst>
 </file>
@@ -770,10 +737,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -785,8 +752,7 @@
     <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -846,15 +812,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17">
-        <v>3003</v>
+        <v>2902</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="5">
-        <v>552</v>
+        <v>394</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="4">
-        <v>2451</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1170,13 +1136,15 @@
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="19">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E26" s="19"/>
-      <c r="F26" s="8"/>
+      <c r="F26" s="7">
+        <v>2</v>
+      </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1186,13 +1154,13 @@
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="19">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1282,13 +1250,13 @@
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1298,13 +1266,13 @@
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="19">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1314,13 +1282,13 @@
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1330,13 +1298,13 @@
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="19">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1346,13 +1314,13 @@
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1362,13 +1330,13 @@
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1378,15 +1346,13 @@
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="19">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="E39" s="19"/>
-      <c r="F39" s="7">
-        <v>130</v>
-      </c>
+      <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1396,13 +1362,15 @@
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="19">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="E40" s="19"/>
-      <c r="F40" s="8"/>
+      <c r="F40" s="7">
+        <v>90</v>
+      </c>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1412,13 +1380,15 @@
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="19">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E41" s="19"/>
-      <c r="F41" s="8"/>
+      <c r="F41" s="7">
+        <v>70</v>
+      </c>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1428,13 +1398,15 @@
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E42" s="19"/>
-      <c r="F42" s="8"/>
+      <c r="F42" s="7">
+        <v>4</v>
+      </c>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1476,13 +1448,13 @@
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="19">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1492,13 +1464,13 @@
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="19">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1508,15 +1480,13 @@
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="19">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="E47" s="19"/>
-      <c r="F47" s="7">
-        <v>120</v>
-      </c>
+      <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1526,13 +1496,13 @@
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1702,13 +1672,13 @@
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1718,13 +1688,15 @@
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="19">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="E60" s="19"/>
-      <c r="F60" s="8"/>
+      <c r="F60" s="7">
+        <v>174</v>
+      </c>
       <c r="G60" s="8"/>
       <c r="H60" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1734,15 +1706,13 @@
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="19">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="E61" s="19"/>
-      <c r="F61" s="7">
-        <v>70</v>
-      </c>
+      <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1752,15 +1722,13 @@
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="19">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="E62" s="19"/>
-      <c r="F62" s="7">
-        <v>174</v>
-      </c>
+      <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1802,13 +1770,13 @@
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1818,13 +1786,13 @@
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1834,13 +1802,13 @@
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1850,13 +1818,13 @@
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1866,13 +1834,13 @@
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1882,13 +1850,13 @@
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1898,13 +1866,13 @@
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E71" s="19"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1914,13 +1882,13 @@
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E72" s="19"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1930,241 +1898,41 @@
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E73" s="19"/>
-      <c r="F73" s="8"/>
+      <c r="F73" s="7">
+        <v>4</v>
+      </c>
       <c r="G73" s="8"/>
       <c r="H73" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="19">
-        <v>2</v>
-      </c>
-      <c r="E74" s="19"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="19">
-        <v>2</v>
-      </c>
-      <c r="E75" s="19"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="19">
-        <v>2</v>
-      </c>
-      <c r="E76" s="19"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="19">
-        <v>2</v>
-      </c>
-      <c r="E77" s="19"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="19">
         <v>1</v>
       </c>
-      <c r="E78" s="19"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="19">
-        <v>1</v>
-      </c>
-      <c r="E79" s="19"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="19">
-        <v>1</v>
-      </c>
-      <c r="E80" s="19"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="19">
-        <v>5</v>
-      </c>
-      <c r="E81" s="19"/>
-      <c r="F81" s="7">
-        <v>4</v>
-      </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="19">
-        <v>1</v>
-      </c>
-      <c r="E82" s="19"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="19">
-        <v>5</v>
-      </c>
-      <c r="E83" s="19"/>
-      <c r="F83" s="7">
-        <v>4</v>
-      </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="19">
-        <v>1</v>
-      </c>
-      <c r="E84" s="19"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="15" t="s">
+    </row>
+    <row r="74" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="20">
-        <v>3003</v>
-      </c>
-      <c r="E85" s="20"/>
-      <c r="F85" s="10">
-        <v>552</v>
-      </c>
-      <c r="G85" s="11"/>
-      <c r="H85" s="9">
-        <v>2451</v>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="20">
+        <v>2902</v>
+      </c>
+      <c r="E74" s="20"/>
+      <c r="F74" s="10">
+        <v>394</v>
+      </c>
+      <c r="G74" s="11"/>
+      <c r="H74" s="9">
+        <v>2508</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="165">
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="D82:E82"/>
+  <mergeCells count="143">
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="A74:C74"/>
     <mergeCell ref="D74:E74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="D77:E77"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="A69:C69"/>

--- a/data/formers/formers_unsh.xlsx
+++ b/data/formers/formers_unsh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\formers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\formers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790812BB-A346-4498-A118-BDDEB7628C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5505C45-B676-45C5-A64D-2F7B67E35843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -101,160 +101,160 @@
     <t>33045уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=3 (арт. 57811) V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
+    <t>33040П Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33043уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=7 (арт. 58152) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
     <t>33042уп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>33043уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=7 (арт. 58152) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33040П Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
     <t>33037П Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=7 (арт. 58153) ПОЛИР. V.1.P</t>
   </si>
   <si>
-    <t>33009 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 H=5 (арт. 110) V.1</t>
-  </si>
-  <si>
     <t>33042П Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) ПОЛИР. V.1.P</t>
   </si>
   <si>
+    <t>33038Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=5 (арт. 57814) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33089 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=7 (арт. TSHA507R) V.1</t>
+  </si>
+  <si>
+    <t>33042Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
     <t>33039Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=3 (арт. 57813) ПОЛИР. V.1.P / УПАК</t>
   </si>
   <si>
+    <t>33056П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=2.6 (арт. HAB452020L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33040Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33041уп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33040упб Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33080П Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33037Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=7 (арт. 58153) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33057П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33036 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=5 (арт. TSHA505R) V.1</t>
+  </si>
+  <si>
+    <t>33029упб Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33041 Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1</t>
+  </si>
+  <si>
+    <t>33205 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=3 H=5 (арт. HAB653050L) V.1</t>
+  </si>
+  <si>
+    <t>33081упб Формирователь десны LM (копия оригинала) Implantium D=4.5 H=5 (арт. HAB453050L) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33097 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 H=7 (арт. TSHA707R) V.1</t>
+  </si>
+  <si>
+    <t>33119П Формирователь десны LM (копия оригинала) Implantium D=5.5 H=4.6 (арт. HAB552035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33059упб Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=3 H=5 (арт. HAB553050L) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33044 Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1</t>
+  </si>
+  <si>
+    <t>33055П Формирователь десны LM (копия оригинала) Implantium D=4 H=2.6 (арт. HAB402020L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33141 Формирователь десны LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=4.5 V.1</t>
+  </si>
+  <si>
+    <t>33101П Формирователь десны LM (копия оригинала) Implantium D=6.5 H=4.8 (арт. HAB652035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33025 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=5 (арт. AANHAF0505) V.1</t>
+  </si>
+  <si>
+    <t>33029 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1</t>
+  </si>
+  <si>
+    <t>33119 Формирователь десны LM (копия оригинала) Implantium D=5.5 H=4.6 (арт. HAB552035L) V.1</t>
+  </si>
+  <si>
+    <t>33084 Формирователь десны LM (копия оригинала) Ankylos X D=6 G/H=4.5 H=6.21 (арт. 3102 4016) V.1</t>
+  </si>
+  <si>
+    <t>33091 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=4 (арт. TSHA604R) V.1</t>
+  </si>
+  <si>
+    <t>33193 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=4 H=7 (арт. HAB554070L) V.1</t>
+  </si>
+  <si>
+    <t>33083П Формирователь десны LM (копия оригинала) Ankylos X D=6 G/H=3 H=4.71 (арт. 3102 4014) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33057упб Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33058П Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=2.6 (арт. HAB552020L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33103 Формирователь десны LM (копия оригинала) Astra Tech 3.5/4.0 D=4.5 H=4 (арт. 24575) V.1</t>
+  </si>
+  <si>
     <t>33093 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 G/H=7 H=7 (арт. TSHA607R) V.1</t>
   </si>
   <si>
-    <t>33089 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=7 (арт. TSHA507R) V.1</t>
-  </si>
-  <si>
-    <t>33042Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33056П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=2.6 (арт. HAB452020L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33040Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33038Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=5 (арт. 57814) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33041уп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33040упб Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33053 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=5 (арт. TSHA455R) V.1</t>
-  </si>
-  <si>
-    <t>33034 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=7 (арт. TSHA457R) V.1</t>
-  </si>
-  <si>
-    <t>33054 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=4 (арт. TSHA504R) V.1</t>
-  </si>
-  <si>
-    <t>33033 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=4 (арт. TSHA454R) V.1</t>
-  </si>
-  <si>
-    <t>33036 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=5 (арт. TSHA505R) V.1</t>
+    <t>33080упб Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33204 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=2 (арт. HAB652020L) V.1</t>
+  </si>
+  <si>
+    <t>33081 Формирователь десны LM (копия оригинала) Implantium D=4.5 H=5 (арт. HAB453050L) V.1</t>
+  </si>
+  <si>
+    <t>33190 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=4 H=7 (арт. HAB454070L) V.1</t>
+  </si>
+  <si>
+    <t>33101 Формирователь десны LM (копия оригинала) Implantium D=6.5 H=4.8 (арт. HAB652035L) V.1</t>
+  </si>
+  <si>
+    <t>33058 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=2.6 (арт. HAB552020L) V.1</t>
+  </si>
+  <si>
+    <t>33235 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=4 H=7 (арт. HAB654070L) V.1</t>
+  </si>
+  <si>
+    <t>33049 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=5 (арт. TSHA455M) V.1</t>
+  </si>
+  <si>
+    <t>33035 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=3 (арт. TSHA503R) V.1</t>
+  </si>
+  <si>
+    <t>33044уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33007 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 H=3 (арт. 109) V.1</t>
+  </si>
+  <si>
+    <t>33121 Формирователь десны LM (копия оригинала) Implantium D=4 G/H=3 H=5 (арт. HAB403050L) V.1</t>
   </si>
   <si>
     <t>33008 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 H=4 (арт. 117) V.1</t>
-  </si>
-  <si>
-    <t>33037Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=7 (арт. 58153) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33057П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33234 Формирователь десны LM (копия оригинала) Nobel Conical Connection RP (4.3) D=5 H=5 (арт. 36646) V.1</t>
-  </si>
-  <si>
-    <t>33080П Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33029упб Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33041 Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1</t>
-  </si>
-  <si>
-    <t>33082 Формирователь десны LM (копия оригинала) Ankylos X D=6 G/H=1.5 H=3.21 (арт. 3102 4012) V.1</t>
-  </si>
-  <si>
-    <t>33119П Формирователь десны LM (копия оригинала) Implantium D=5.5 H=4.6 (арт. HAB552035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33093Пуп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 G/H=7 H=7 (арт. TSHA607R) ПОЛИР. V.1.P / УПАК</t>
-  </si>
-  <si>
-    <t>33081упб Формирователь десны LM (копия оригинала) Implantium D=4.5 H=5 (арт. HAB453050L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33059упб Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=3 H=5 (арт. HAB553050L) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33101П Формирователь десны LM (копия оригинала) Implantium D=6.5 H=4.8 (арт. HAB652035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33231 Формирователь десны LM (копия оригинала) Nobel Conical Connection NP (3.5) D=5 H=5 (арт. 36642) V.1</t>
-  </si>
-  <si>
-    <t>33055П Формирователь десны LM (копия оригинала) Implantium D=4 H=2.6 (арт. HAB402020L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33097 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 H=7 (арт. TSHA707R) V.1</t>
-  </si>
-  <si>
-    <t>33044 Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1</t>
-  </si>
-  <si>
-    <t>33025 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=5 (арт. AANHAF0505) V.1</t>
-  </si>
-  <si>
-    <t>33084 Формирователь десны LM (копия оригинала) Ankylos X D=6 G/H=4.5 H=6.21 (арт. 3102 4016) V.1</t>
-  </si>
-  <si>
-    <t>33080упб Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33053уп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=5 (арт. TSHA455R) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33057упб Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33058П Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=2.6 (арт. HAB552020L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33193 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=4 H=7 (арт. HAB554070L) V.1</t>
-  </si>
-  <si>
-    <t>33190 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=4 H=7 (арт. HAB454070L) V.1</t>
-  </si>
-  <si>
-    <t>33081 Формирователь десны LM (копия оригинала) Implantium D=4.5 H=5 (арт. HAB453050L) V.1</t>
-  </si>
-  <si>
-    <t>33051 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 G/H=5 H=5 (арт. TSHA405R) V.1</t>
-  </si>
-  <si>
-    <t>33036упб Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=5 (арт. TSHA505R) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33092Пуп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=5 (арт. TSHA605R) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33010 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 G/H=7 H=7 (арт. 119) V.1</t>
-  </si>
-  <si>
-    <t>33044уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33007 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 H=3 (арт. 109) V.1</t>
   </si>
 </sst>
 </file>
@@ -739,9 +739,7 @@
   </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -752,7 +750,7 @@
     <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -812,15 +810,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17">
-        <v>2902</v>
+        <v>2894</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="5">
-        <v>394</v>
+        <v>572</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="4">
-        <v>2508</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -910,7 +908,7 @@
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="7">
@@ -918,7 +916,7 @@
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1136,15 +1134,13 @@
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="19">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E26" s="19"/>
-      <c r="F26" s="7">
-        <v>2</v>
-      </c>
+      <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1154,13 +1150,13 @@
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="19">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1250,13 +1246,13 @@
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1266,13 +1262,13 @@
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1282,13 +1278,13 @@
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1298,13 +1294,13 @@
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="19">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1314,13 +1310,13 @@
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1330,13 +1326,15 @@
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="19">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E38" s="19"/>
-      <c r="F38" s="8"/>
+      <c r="F38" s="7">
+        <v>70</v>
+      </c>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1346,13 +1344,13 @@
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1362,15 +1360,13 @@
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="19">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="E40" s="19"/>
-      <c r="F40" s="7">
-        <v>90</v>
-      </c>
+      <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1380,15 +1376,13 @@
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="19">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="E41" s="19"/>
-      <c r="F41" s="7">
-        <v>70</v>
-      </c>
+      <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1398,15 +1392,13 @@
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E42" s="19"/>
-      <c r="F42" s="7">
-        <v>4</v>
-      </c>
+      <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1416,13 +1408,13 @@
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1432,13 +1424,13 @@
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E44" s="19"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1448,13 +1440,13 @@
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1464,13 +1456,13 @@
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1480,13 +1472,13 @@
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1496,13 +1488,13 @@
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1528,13 +1520,13 @@
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1544,13 +1536,15 @@
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="19">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="E51" s="19"/>
-      <c r="F51" s="8"/>
+      <c r="F51" s="7">
+        <v>150</v>
+      </c>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1560,13 +1554,13 @@
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1576,13 +1570,15 @@
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="19">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="E53" s="19"/>
-      <c r="F53" s="8"/>
+      <c r="F53" s="7">
+        <v>174</v>
+      </c>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1592,13 +1588,13 @@
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1608,13 +1604,13 @@
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1624,13 +1620,13 @@
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1640,13 +1636,13 @@
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1656,13 +1652,13 @@
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1672,13 +1668,13 @@
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1688,15 +1684,13 @@
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="19">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="E60" s="19"/>
-      <c r="F60" s="7">
-        <v>174</v>
-      </c>
+      <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1722,13 +1716,13 @@
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E62" s="19"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1738,13 +1732,13 @@
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" s="19"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1754,13 +1748,13 @@
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64" s="19"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1802,13 +1796,13 @@
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1818,13 +1812,13 @@
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1834,10 +1828,12 @@
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="19">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="E69" s="19"/>
-      <c r="F69" s="8"/>
+      <c r="F69" s="7">
+        <v>120</v>
+      </c>
       <c r="G69" s="8"/>
       <c r="H69" s="7">
         <v>2</v>
@@ -1866,13 +1862,15 @@
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E71" s="19"/>
-      <c r="F71" s="8"/>
+      <c r="F71" s="7">
+        <v>4</v>
+      </c>
       <c r="G71" s="8"/>
       <c r="H71" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1882,13 +1880,13 @@
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" s="19"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1916,15 +1914,15 @@
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
       <c r="D74" s="20">
-        <v>2902</v>
+        <v>2894</v>
       </c>
       <c r="E74" s="20"/>
       <c r="F74" s="10">
-        <v>394</v>
+        <v>572</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="9">
-        <v>2508</v>
+        <v>2322</v>
       </c>
     </row>
   </sheetData>

--- a/data/formers/formers_unsh.xlsx
+++ b/data/formers/formers_unsh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\formers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Desktop\data_12.07.2022\formers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5505C45-B676-45C5-A64D-2F7B67E35843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F46E97B-997C-46A5-9698-03D9A73E8CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>Отбор:</t>
   </si>
@@ -101,12 +101,12 @@
     <t>33045уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=3 (арт. 57811) V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
+    <t>33043уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=7 (арт. 58152) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
     <t>33040П Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) ПОЛИР. V.1.P</t>
   </si>
   <si>
-    <t>33043уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=7 (арт. 58152) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
     <t>33042уп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
@@ -116,142 +116,172 @@
     <t>33042П Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) ПОЛИР. V.1.P</t>
   </si>
   <si>
+    <t>33039Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=3 (арт. 57813) ПОЛИР. V.1.P / УПАК</t>
+  </si>
+  <si>
     <t>33038Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=5 (арт. 57814) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
   </si>
   <si>
+    <t>33040Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33042Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33056П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=2.6 (арт. HAB452020L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33041уп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33040упб Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33081 Формирователь десны LM (копия оригинала) Implantium D=4.5 H=5 (арт. HAB453050L) V.1</t>
+  </si>
+  <si>
+    <t>33092 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=5 (арт. TSHA605R) V.1</t>
+  </si>
+  <si>
+    <t>33057П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33029упб Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33080П Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33037Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=7 (арт. 58153) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33051 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 G/H=5 H=5 (арт. TSHA405R) V.1</t>
+  </si>
+  <si>
+    <t>33119 Формирователь десны LM (копия оригинала) Implantium D=5.5 H=4.6 (арт. HAB552035L) V.1</t>
+  </si>
+  <si>
+    <t>33193 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=4 H=7 (арт. HAB554070L) V.1</t>
+  </si>
+  <si>
+    <t>33041 Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1</t>
+  </si>
+  <si>
+    <t>33101П Формирователь десны LM (копия оригинала) Implantium D=6.5 H=4.8 (арт. HAB652035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33059 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=3 H=5 (арт. HAB553050L) V.1</t>
+  </si>
+  <si>
+    <t>33119П Формирователь десны LM (копия оригинала) Implantium D=5.5 H=4.6 (арт. HAB552035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33055П Формирователь десны LM (копия оригинала) Implantium D=4 H=2.6 (арт. HAB402020L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33212 Формирователь десны LM (копия оригинала) Nobel Conical Connection NP (3.5) D=5 H=7 (арт. 36868) V.1</t>
+  </si>
+  <si>
+    <t>33081упб Формирователь десны LM (копия оригинала) Implantium D=4.5 H=5 (арт. HAB453050L) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33044 Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1</t>
+  </si>
+  <si>
+    <t>33080 Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) V.1</t>
+  </si>
+  <si>
+    <t>33234 Формирователь десны LM (копия оригинала) Nobel Conical Connection RP (4.3) D=5 H=5 (арт. 36646) V.1</t>
+  </si>
+  <si>
+    <t>33231 Формирователь десны LM (копия оригинала) Nobel Conical Connection NP (3.5) D=5 H=5 (арт. 36642) V.1</t>
+  </si>
+  <si>
+    <t>33093 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 G/H=7 H=7 (арт. TSHA607R) V.1</t>
+  </si>
+  <si>
+    <t>33059упб Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=3 H=5 (арт. HAB553050L) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33202 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=4 H=7 (арт. AANHAF0407) V.1</t>
+  </si>
+  <si>
+    <t>33255 Формирователь десны LM (копия оригинала) Nobel Conical Connection RP (4.3) D=6 H=5 (арт. 36648) V.1</t>
+  </si>
+  <si>
+    <t>33192 Формирователь десны LM (копия оригинала) Implantium D=4 G/H=4 H=7 (арт. HAB404070L) V.1</t>
+  </si>
+  <si>
+    <t>33084 Формирователь десны LM (копия оригинала) Ankylos X D=6 G/H=4.5 H=6.21 (арт. 3102 4016) V.1</t>
+  </si>
+  <si>
+    <t>33092уп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=5 (арт. TSHA605R) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33057упб Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33205 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=3 H=5 (арт. HAB653050L) V.1</t>
+  </si>
+  <si>
+    <t>33080упб Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33211 Формирователь десны LM (копия оригинала) Nobel Conical Connection NP (3.5) D=5 H=3 (арт. 36641) V.1</t>
+  </si>
+  <si>
+    <t>33239 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=4.5 H=7 (арт. HA4570) V.1</t>
+  </si>
+  <si>
+    <t>33247 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=6.5 H=7 (арт. HA6570) V.1</t>
+  </si>
+  <si>
+    <t>33036упб Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=5 (арт. TSHA505R) V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33245 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=6.5 H=5 (арт. HA6550) V.1</t>
+  </si>
+  <si>
+    <t>33058П Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=2.6 (арт. HAB552020L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33196 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=4 H=7 (арт. HA4070) V.1</t>
+  </si>
+  <si>
+    <t>33190 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=4 H=7 (арт. HAB454070L) V.1</t>
+  </si>
+  <si>
+    <t>33017П Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=4 H=5 (арт. AANHAF0405) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33122 Формирователь десны LM (копия оригинала) Mis C1 (Conical) NP (3.3) D=4 H=3 (арт. CN-HS340) V.1</t>
+  </si>
+  <si>
+    <t>33125 Формирователь десны LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=4.8 H=2 (арт. CS-HS248) V.1</t>
+  </si>
+  <si>
+    <t>33049 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=5 (арт. TSHA455M) V.1</t>
+  </si>
+  <si>
     <t>33089 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=7 (арт. TSHA507R) V.1</t>
   </si>
   <si>
-    <t>33042Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33039Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=3 (арт. 57813) ПОЛИР. V.1.P / УПАК</t>
-  </si>
-  <si>
-    <t>33056П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=2.6 (арт. HAB452020L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33040Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33041уп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33040упб Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33080П Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33037Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=7 (арт. 58153) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33057П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) ПОЛИР. V.1.P</t>
+    <t>33088 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=7 (арт. TSHA457M) V.1</t>
+  </si>
+  <si>
+    <t>33026 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=6.2 H=4 (арт. AANHAF0604) V.1</t>
   </si>
   <si>
     <t>33036 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=5 (арт. TSHA505R) V.1</t>
   </si>
   <si>
-    <t>33029упб Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33041 Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1</t>
-  </si>
-  <si>
-    <t>33205 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=3 H=5 (арт. HAB653050L) V.1</t>
-  </si>
-  <si>
-    <t>33081упб Формирователь десны LM (копия оригинала) Implantium D=4.5 H=5 (арт. HAB453050L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33097 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 H=7 (арт. TSHA707R) V.1</t>
-  </si>
-  <si>
-    <t>33119П Формирователь десны LM (копия оригинала) Implantium D=5.5 H=4.6 (арт. HAB552035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33059упб Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=3 H=5 (арт. HAB553050L) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33044 Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1</t>
-  </si>
-  <si>
-    <t>33055П Формирователь десны LM (копия оригинала) Implantium D=4 H=2.6 (арт. HAB402020L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33141 Формирователь десны LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=4.5 V.1</t>
-  </si>
-  <si>
-    <t>33101П Формирователь десны LM (копия оригинала) Implantium D=6.5 H=4.8 (арт. HAB652035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33025 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=5 (арт. AANHAF0505) V.1</t>
-  </si>
-  <si>
-    <t>33029 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1</t>
-  </si>
-  <si>
-    <t>33119 Формирователь десны LM (копия оригинала) Implantium D=5.5 H=4.6 (арт. HAB552035L) V.1</t>
-  </si>
-  <si>
-    <t>33084 Формирователь десны LM (копия оригинала) Ankylos X D=6 G/H=4.5 H=6.21 (арт. 3102 4016) V.1</t>
-  </si>
-  <si>
-    <t>33091 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=4 (арт. TSHA604R) V.1</t>
-  </si>
-  <si>
-    <t>33193 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=4 H=7 (арт. HAB554070L) V.1</t>
-  </si>
-  <si>
-    <t>33083П Формирователь десны LM (копия оригинала) Ankylos X D=6 G/H=3 H=4.71 (арт. 3102 4014) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33057упб Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33058П Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=2.6 (арт. HAB552020L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33103 Формирователь десны LM (копия оригинала) Astra Tech 3.5/4.0 D=4.5 H=4 (арт. 24575) V.1</t>
-  </si>
-  <si>
-    <t>33093 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 G/H=7 H=7 (арт. TSHA607R) V.1</t>
-  </si>
-  <si>
-    <t>33080упб Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33204 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=2 (арт. HAB652020L) V.1</t>
-  </si>
-  <si>
-    <t>33081 Формирователь десны LM (копия оригинала) Implantium D=4.5 H=5 (арт. HAB453050L) V.1</t>
-  </si>
-  <si>
-    <t>33190 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=4 H=7 (арт. HAB454070L) V.1</t>
-  </si>
-  <si>
-    <t>33101 Формирователь десны LM (копия оригинала) Implantium D=6.5 H=4.8 (арт. HAB652035L) V.1</t>
-  </si>
-  <si>
-    <t>33058 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=2.6 (арт. HAB552020L) V.1</t>
-  </si>
-  <si>
-    <t>33235 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=4 H=7 (арт. HAB654070L) V.1</t>
-  </si>
-  <si>
-    <t>33049 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=5 (арт. TSHA455M) V.1</t>
-  </si>
-  <si>
-    <t>33035 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=3 (арт. TSHA503R) V.1</t>
-  </si>
-  <si>
     <t>33044уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
+    <t>33010 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 G/H=7 H=7 (арт. 119) V.1</t>
+  </si>
+  <si>
     <t>33007 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 H=3 (арт. 109) V.1</t>
-  </si>
-  <si>
-    <t>33121 Формирователь десны LM (копия оригинала) Implantium D=4 G/H=3 H=5 (арт. HAB403050L) V.1</t>
   </si>
   <si>
     <t>33008 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 H=4 (арт. 117) V.1</t>
@@ -737,7 +767,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -750,7 +780,8 @@
     <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -810,15 +841,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17">
-        <v>2894</v>
+        <v>2716</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="5">
-        <v>572</v>
+        <v>302</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="4">
-        <v>2322</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -908,7 +939,7 @@
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="7">
@@ -916,7 +947,7 @@
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1230,13 +1261,13 @@
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1246,13 +1277,13 @@
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1262,13 +1293,13 @@
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="19">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1278,13 +1309,13 @@
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1326,12 +1357,10 @@
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="19">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E38" s="19"/>
-      <c r="F38" s="7">
-        <v>70</v>
-      </c>
+      <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
         <v>20</v>
@@ -1360,13 +1389,13 @@
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="19">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1376,13 +1405,13 @@
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="19">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1392,13 +1421,13 @@
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="19">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1408,13 +1437,13 @@
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1520,13 +1549,13 @@
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1536,15 +1565,13 @@
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="19">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="E51" s="19"/>
-      <c r="F51" s="7">
-        <v>150</v>
-      </c>
+      <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1554,13 +1581,13 @@
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1570,15 +1597,13 @@
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="19">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="E53" s="19"/>
-      <c r="F53" s="7">
-        <v>174</v>
-      </c>
+      <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1588,13 +1613,13 @@
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1604,13 +1629,13 @@
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1620,13 +1645,13 @@
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1636,13 +1661,13 @@
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1652,13 +1677,13 @@
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1668,13 +1693,15 @@
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="19">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="E59" s="19"/>
-      <c r="F59" s="8"/>
+      <c r="F59" s="7">
+        <v>174</v>
+      </c>
       <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1716,13 +1743,13 @@
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E62" s="19"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1732,13 +1759,13 @@
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E63" s="19"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1748,13 +1775,13 @@
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E64" s="19"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1764,13 +1791,13 @@
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1780,13 +1807,13 @@
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1796,13 +1823,13 @@
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1812,13 +1839,13 @@
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1828,15 +1855,13 @@
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="19">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="E69" s="19"/>
-      <c r="F69" s="7">
-        <v>120</v>
-      </c>
+      <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1846,13 +1871,13 @@
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1862,15 +1887,13 @@
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E71" s="19"/>
-      <c r="F71" s="7">
-        <v>4</v>
-      </c>
+      <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1880,13 +1903,13 @@
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E72" s="19"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1896,41 +1919,225 @@
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E73" s="19"/>
-      <c r="F73" s="7">
-        <v>4</v>
-      </c>
+      <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="19">
+        <v>2</v>
+      </c>
+      <c r="E74" s="19"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="19">
+        <v>2</v>
+      </c>
+      <c r="E75" s="19"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="19">
+        <v>2</v>
+      </c>
+      <c r="E76" s="19"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="19">
+        <v>2</v>
+      </c>
+      <c r="E77" s="19"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="19">
+        <v>2</v>
+      </c>
+      <c r="E78" s="19"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="19">
+        <v>72</v>
+      </c>
+      <c r="E79" s="19"/>
+      <c r="F79" s="7">
+        <v>70</v>
+      </c>
+      <c r="G79" s="8"/>
+      <c r="H79" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="19">
+        <v>2</v>
+      </c>
+      <c r="E80" s="19"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="15" t="s">
+      <c r="E81" s="19"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="19">
+        <v>5</v>
+      </c>
+      <c r="E82" s="19"/>
+      <c r="F82" s="7">
+        <v>4</v>
+      </c>
+      <c r="G82" s="8"/>
+      <c r="H82" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="19">
+        <v>5</v>
+      </c>
+      <c r="E83" s="19"/>
+      <c r="F83" s="7">
+        <v>4</v>
+      </c>
+      <c r="G83" s="8"/>
+      <c r="H83" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="20">
-        <v>2894</v>
-      </c>
-      <c r="E74" s="20"/>
-      <c r="F74" s="10">
-        <v>572</v>
-      </c>
-      <c r="G74" s="11"/>
-      <c r="H74" s="9">
-        <v>2322</v>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="20">
+        <v>2716</v>
+      </c>
+      <c r="E84" s="20"/>
+      <c r="F84" s="10">
+        <v>302</v>
+      </c>
+      <c r="G84" s="11"/>
+      <c r="H84" s="9">
+        <v>2414</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="143">
+  <mergeCells count="163">
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="D82:E82"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="A74:C74"/>
     <mergeCell ref="D74:E74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="D77:E77"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="A69:C69"/>
